--- a/data/trans_dic/P41C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Habitat-trans_dic.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,71</t>
+          <t>0,0; 7,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0,0; 3,88</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 16,52</t>
+          <t>1,19; 15,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,17</t>
+          <t>0,4; 3,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 8,22</t>
+          <t>1,17; 7,85</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,78</t>
+          <t>0,74; 4,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,98</t>
+          <t>3,06; 7,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,31</t>
+          <t>2,08; 5,2</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 12,4</t>
+          <t>1,52; 12,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 10,16</t>
+          <t>1,74; 9,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 8,4</t>
+          <t>2,45; 8,91</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 10,94</t>
+          <t>2,72; 9,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 9,26</t>
+          <t>3,01; 9,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 8,34</t>
+          <t>3,66; 8,48</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,24</t>
+          <t>2,54; 6,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,68</t>
+          <t>3,02; 5,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,49</t>
+          <t>3,13; 5,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P41C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P41C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,43</t>
+          <t>0,0; 7,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,88</t>
+          <t>0,0; 4,39</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 15,1</t>
+          <t>2,05; 16,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,72</t>
+          <t>0,41; 4,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 7,85</t>
+          <t>1,34; 8,22</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,4</t>
+          <t>0,7; 4,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,65</t>
+          <t>2,99; 7,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,2</t>
+          <t>2,07; 5,31</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 12,72</t>
+          <t>1,57; 12,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 9,97</t>
+          <t>1,73; 10,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 8,91</t>
+          <t>2,24; 8,4</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 9,99</t>
+          <t>2,56; 10,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,17</t>
+          <t>3,13; 9,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,48</t>
+          <t>3,61; 8,34</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,02</t>
+          <t>2,49; 6,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 5,74</t>
+          <t>3,03; 5,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,38</t>
+          <t>3,12; 5,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P41C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>1,68; 12,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,71</t>
+          <t>0,35; 3,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>1,11; 7,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>2,52%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 16,52</t>
+          <t>0,17; 3,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,17</t>
+          <t>2,97; 7,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 8,22</t>
+          <t>0,77; 4,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,78</t>
+          <t>1,54; 12,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,98</t>
+          <t>1,77; 10,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,31</t>
+          <t>2,25; 8,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>5,61%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 12,4</t>
+          <t>2,43; 10,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 10,16</t>
+          <t>3,15; 9,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 8,4</t>
+          <t>3,62; 8,3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 10,94</t>
+          <t>1,16; 5,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 9,26</t>
+          <t>3,04; 5,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 8,34</t>
+          <t>2,08; 4,78</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,93%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,25%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,49; 6,24</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,03; 5,68</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,12; 5,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P41C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 12,83</t>
+          <t>1,59; 13,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,47</t>
+          <t>0,38; 3,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,23</t>
+          <t>1,27; 6,87</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,44</t>
+          <t>0,13; 3,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,86</t>
+          <t>2,92; 7,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,52</t>
+          <t>0,81; 4,39</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 12,27</t>
+          <t>1,7; 12,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 10,24</t>
+          <t>1,74; 9,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,42</t>
+          <t>2,37; 8,2</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 10,66</t>
+          <t>2,36; 10,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 9,34</t>
+          <t>3,18; 9,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 8,3</t>
+          <t>3,66; 8,27</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,13</t>
+          <t>1,25; 5,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,65</t>
+          <t>3,03; 5,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,78</t>
+          <t>2,09; 4,81</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dificultades para tener un embarazo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6944</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2218</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9162</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2337; 19343</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>600; 5319</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3896; 21029</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6547</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12074</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18621</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>638; 17777</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7183; 19164</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5988; 32376</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4843</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9204</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1441; 10182</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1896; 10058</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4589; 15859</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8639</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10303</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18942</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3679; 15662</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5766; 16994</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12358; 27884</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>26491</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>29437</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>55929</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10962; 44316</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>21071; 39850</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>32890; 75740</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>